--- a/liveaction.xlsx
+++ b/liveaction.xlsx
@@ -467,16 +467,6 @@
           <t>Difficulty</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>MAL avg. rating</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>MAL rating count</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
